--- a/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>PRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42182</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41818</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41454</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4837400</v>
+      </c>
+      <c r="E8" s="3">
         <v>4731700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4946200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5280600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2632200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4603900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4060800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3539800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3173200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3064100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2900200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2966700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3228800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1553300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2891400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2613100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2259800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2077700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1773300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1831500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1979500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2051800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1078900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1712500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1447700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1280000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1095600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,38 +826,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>187400</v>
+      </c>
+      <c r="E12" s="3">
         <v>218600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>167700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>184000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>88200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>187800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>152500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>115200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>105800</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,39 +889,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>226600</v>
+      </c>
+      <c r="E14" s="3">
         <v>245900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>243700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2663100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>243400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>218800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,9 +955,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4632800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4495700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4483200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7281400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2565500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3866700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3659600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2860700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2604000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E18" s="3">
         <v>236000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>463000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>66700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>737200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>401200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>679100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>569200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,68 +1051,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E20" s="3">
         <v>54600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-182900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2847500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-342100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-23000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>567500</v>
+      </c>
+      <c r="E21" s="3">
         <v>714200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>724900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4391300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>280200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>943900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>737100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>837900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>712000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1093,84 +1132,93 @@
       <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="3">
         <v>88900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>147100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>105600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>70000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>64700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E23" s="3">
         <v>290600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>280100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4848300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>248000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>272600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>607700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>512000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E24" s="3">
         <v>159600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>145400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-835500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-33600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>120000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>67300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>165800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>119000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E26" s="3">
         <v>131000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>134700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4012800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>42500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>128000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>205300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>441900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>393000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E27" s="3">
         <v>131000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>134700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4012800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>128000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>205300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>441900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>393000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,20 +1345,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>17</v>
@@ -1309,18 +1369,21 @@
       <c r="H29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>8600</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-54600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>182900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2847500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>342100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>23000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E33" s="3">
         <v>131000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>119600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4012800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>42500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>128000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>205300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>441900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>401600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E35" s="3">
         <v>131000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>119600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4012800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>42500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>128000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>205300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>441900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>401600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42182</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41818</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41454</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,193 +1647,212 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>354300</v>
+      </c>
+      <c r="E41" s="3">
         <v>551100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>678700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>622300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>417800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>785600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>799500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1559800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>602500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F42" s="3">
-        <v>700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>15900</v>
+        <v>6600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H42" s="3">
-        <v>21800</v>
+        <v>14900</v>
       </c>
       <c r="I42" s="3">
-        <v>6200</v>
+        <v>12700</v>
       </c>
       <c r="J42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K42" s="3">
         <v>800</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1269500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1073100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1130800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1176000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2710900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1282100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>935100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1316000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>573600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>967300</v>
+      </c>
+      <c r="E44" s="3">
         <v>878000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>806900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>795000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>898700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>838900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>631600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1407800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>547500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>398000</v>
+        <v>159200</v>
       </c>
       <c r="E45" s="3">
-        <v>199100</v>
+        <v>400000</v>
       </c>
       <c r="F45" s="3">
-        <v>211300</v>
+        <v>203200</v>
       </c>
       <c r="G45" s="3">
-        <v>285100</v>
+        <v>212000</v>
       </c>
       <c r="H45" s="3">
-        <v>254500</v>
+        <v>286100</v>
       </c>
       <c r="I45" s="3">
-        <v>178500</v>
+        <v>263600</v>
       </c>
       <c r="J45" s="3">
+        <v>178800</v>
+      </c>
+      <c r="K45" s="3">
         <v>195500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2756900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2902200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2819600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2805300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2791600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3182900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2550900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2236900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1795900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>17</v>
+      <c r="D47" s="3">
+        <v>20100</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>17</v>
@@ -1756,84 +1860,93 @@
       <c r="F47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="3">
         <v>220500</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="3">
         <v>4400</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1060300</v>
+      </c>
+      <c r="E48" s="3">
         <v>829100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>833100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>870100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1772400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>932400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>779900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2653200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>578400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7106700</v>
+      </c>
+      <c r="E49" s="3">
         <v>6888000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7556200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9910700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15352100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15340600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10330800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4663400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1549400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>357400</v>
+      </c>
+      <c r="E52" s="3">
         <v>364100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>419900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>284000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>336200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>264700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>191200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>201600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11301400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10983400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11628800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13870100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19349600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19720600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13852800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5350800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4024000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>520200</v>
+      </c>
+      <c r="E57" s="3">
         <v>474900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>450200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>471700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1468900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>747500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>364300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>764000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>317300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
         <v>190200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>70400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>572800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7050400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>64600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>143700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>92400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>812200</v>
+      </c>
+      <c r="E59" s="3">
         <v>872300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>915400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>791800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1172600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>881600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>566700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>642400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>295300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1335800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1537400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1436000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1836300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2552200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1693700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1074700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>749400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>652700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3365800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3052200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3270800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5224500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4971600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5246900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3063100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1927800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1329200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>795700</v>
+      </c>
+      <c r="E62" s="3">
         <v>725700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>751400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>851700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3341800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2117200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1021300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>682000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>189400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5497600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5315400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5458300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7912000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9242200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9058000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5159900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3019400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2173000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1695500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1838300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1975500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2095100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3462100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1938300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1875100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3431800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1306900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5803800</v>
+      </c>
+      <c r="E76" s="3">
         <v>5668000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6170500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5958100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10107400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10662600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8692900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2331400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1851000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42182</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41818</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41454</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E81" s="3">
         <v>131000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>119600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4012800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>42500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>128000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>205300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>441900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>401600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>396500</v>
+      </c>
+      <c r="E83" s="3">
         <v>423600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>444800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>457000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>182400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>548800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>358900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>160200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>135300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>387800</v>
+      </c>
+      <c r="E89" s="3">
         <v>593000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>698900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>654900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1198300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>693500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>553800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>513400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-286800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-138200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-88600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-171300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-77800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-137000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-171600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-104100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-120900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-596100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-126800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2338100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-175000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-708100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2646900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1704800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-947800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-684100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-104900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-91100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-83200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-36300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-64800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-46100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-33000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-29000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-571900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3004700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-268700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>149600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1523900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1028000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>577200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>458700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-21900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>24100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-89200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-196800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-127600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>204500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-367800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>177400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>292400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>PRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42182</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41818</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41454</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5063300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4837400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4731700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4946200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5280600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2632200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4603900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4060800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3539800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3173200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3248100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3064100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2900200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2966700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3228800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1553300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2891400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2613100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2259800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2077700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1815200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1773300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1831500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1979500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2051800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1078900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1712500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1447700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1280000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1095600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E12" s="3">
         <v>187400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>218600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>167700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>184000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>88200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>187800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>152500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>115200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>105800</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,42 +908,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>374700</v>
+      </c>
+      <c r="E14" s="3">
         <v>226600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>245900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>243700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2663100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>243400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>218800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4967900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4632800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4495700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4483200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7281400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2565500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3866700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3659600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2860700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2604000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E18" s="3">
         <v>204600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>236000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>463000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>66700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>737200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>401200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>679100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>569200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,74 +1084,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-244800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-33600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>54600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-182900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2847500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>31100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-342100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-23000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>235400</v>
+      </c>
+      <c r="E21" s="3">
         <v>567500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>714200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>724900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4391300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>280200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>943900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>737100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>837900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>712000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1135,90 +1174,99 @@
       <c r="G22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3">
         <v>88900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>147100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>105600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>64700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-149400</v>
+      </c>
+      <c r="E23" s="3">
         <v>171000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>290600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>280100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4848300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>248000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>272600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>607700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>512000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E24" s="3">
         <v>24900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>159600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>145400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-835500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-33600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>120000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>67300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>165800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>119000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-162600</v>
+      </c>
+      <c r="E26" s="3">
         <v>146100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>131000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>134700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4012800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>42500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>128000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>205300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>441900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>393000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-162600</v>
+      </c>
+      <c r="E27" s="3">
         <v>146100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>131000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>134700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4012800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>128000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>205300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>441900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>393000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,11 +1420,11 @@
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3">
         <v>-15100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>17</v>
@@ -1372,18 +1432,21 @@
       <c r="I29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>8600</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>244800</v>
+      </c>
+      <c r="E32" s="3">
         <v>33600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-54600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>182900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2847500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-31100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>342100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>23000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-162600</v>
+      </c>
+      <c r="E33" s="3">
         <v>146100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>131000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>119600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4012800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>42500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>128000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>205300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>441900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>401600</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-162600</v>
+      </c>
+      <c r="E35" s="3">
         <v>146100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>131000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>119600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4012800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>42500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>128000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>205300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>441900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>401600</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42182</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41818</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41454</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,49 +1733,53 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>641500</v>
+      </c>
+      <c r="E41" s="3">
         <v>354300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>551100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>678700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>622300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>417800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>785600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>799500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1559800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>602500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E42" s="3">
         <v>6600</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>17</v>
@@ -1698,164 +1787,179 @@
       <c r="G42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="3">
         <v>14900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>800</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1073900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1269500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1073100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1130800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1176000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2710900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1282100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>935100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1316000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>573600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200200</v>
+      </c>
+      <c r="E44" s="3">
         <v>967300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>878000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>806900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>795000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>898700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>838900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>631600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1407800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>547500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>215400</v>
+      </c>
+      <c r="E45" s="3">
         <v>159200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>203200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>212000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>286100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>263600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>178800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>195500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3133500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2756900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2902200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2819600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2805300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2791600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3182900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2550900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2236900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1795900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E47" s="3">
         <v>20100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>17</v>
@@ -1863,90 +1967,99 @@
       <c r="G47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="3">
         <v>220500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="3">
         <v>4400</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1213000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1060300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>829100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>833100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>870100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1772400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>932400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>779900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2653200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>578400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6758200</v>
+      </c>
+      <c r="E49" s="3">
         <v>7106700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6888000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7556200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9910700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15352100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15340600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10330800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4663400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1549400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E52" s="3">
         <v>357400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>364100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>419900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>284000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>336200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>264700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>191200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>201600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11488400</v>
+      </c>
+      <c r="E54" s="3">
         <v>11301400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10983400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11628800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13870100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19349600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19720600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13852800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5350800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4024000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>543800</v>
+      </c>
+      <c r="E57" s="3">
         <v>520200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>474900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>450200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>471700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1468900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>747500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>364300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>764000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>317300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>190200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>70400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>572800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7050400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>64600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>143700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>92400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>40100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800400</v>
+      </c>
+      <c r="E59" s="3">
         <v>812200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>872300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>915400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>791800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1172600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>881600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>566700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>642400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>295300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1335800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1537400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1436000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1836300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2552200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1693700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1074700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>749400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>652700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3528300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3365800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3052200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3270800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5224500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4971600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5246900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3063100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1927800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1329200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E62" s="3">
         <v>795700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>725700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>751400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>851700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3341800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2117200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1021300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>682000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>189400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5833300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5497600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5315400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5458300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7912000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9242200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9058000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5159900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3019400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2173000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1858100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1695500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1838300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1975500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2095100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3462100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1938300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1875100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3431800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1306900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5655100</v>
+      </c>
+      <c r="E76" s="3">
         <v>5803800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5668000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6170500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5958100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10107400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10662600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8692900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2331400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1851000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42182</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41818</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41454</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-162600</v>
+      </c>
+      <c r="E81" s="3">
         <v>146100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>131000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>119600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4012800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>42500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>128000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>205300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>441900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>401600</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>384800</v>
+      </c>
+      <c r="E83" s="3">
         <v>396500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>423600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>444800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>457000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>182400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>548800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>358900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>160200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>135300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>636200</v>
+      </c>
+      <c r="E89" s="3">
         <v>387800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>593000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>698900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>654900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1198300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>693500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>553800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>513400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-205600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-286800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-138200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-88600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-171300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-77800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-137000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-171600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-104100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-120900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-187800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-596100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-126800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2338100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-175000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-708100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2646900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1704800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-947800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-684100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-123900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-112400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-104900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-91100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-83200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-36300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-64800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-46100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-33000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-29000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-181100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-571900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3004700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-268700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>149600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1523900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1028000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>577200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>458700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E101" s="3">
         <v>9700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-21900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>24100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-89200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>287200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-196800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-127600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>56400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>204500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-367800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>177400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>292400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>PRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42182</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41818</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41454</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5063300</v>
+        <v>4138700</v>
       </c>
       <c r="E8" s="3">
-        <v>4837400</v>
+        <v>4088200</v>
       </c>
       <c r="F8" s="3">
+        <v>3869900</v>
+      </c>
+      <c r="G8" s="3">
         <v>4731700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4946200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5280600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2632200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4603900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4060800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3539800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3173200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3248100</v>
+        <v>2722500</v>
       </c>
       <c r="E9" s="3">
-        <v>3064100</v>
+        <v>2593300</v>
       </c>
       <c r="F9" s="3">
+        <v>2436200</v>
+      </c>
+      <c r="G9" s="3">
         <v>2900200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2966700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3228800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1553300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2891400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2613100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2259800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2077700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1815200</v>
+        <v>1416200</v>
       </c>
       <c r="E10" s="3">
-        <v>1773300</v>
+        <v>1494900</v>
       </c>
       <c r="F10" s="3">
+        <v>1433700</v>
+      </c>
+      <c r="G10" s="3">
         <v>1831500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1979500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2051800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1078900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1712500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1447700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1280000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1095600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +852,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>177700</v>
+        <v>122000</v>
       </c>
       <c r="E12" s="3">
-        <v>187400</v>
+        <v>121700</v>
       </c>
       <c r="F12" s="3">
+        <v>119200</v>
+      </c>
+      <c r="G12" s="3">
         <v>218600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>167700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>184000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>88200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>187800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>152500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>115200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>105800</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,45 +927,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>374700</v>
+        <v>230800</v>
       </c>
       <c r="E14" s="3">
-        <v>226600</v>
+        <v>27600</v>
       </c>
       <c r="F14" s="3">
+        <v>55500</v>
+      </c>
+      <c r="G14" s="3">
         <v>245900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>243700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2663100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>243400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>218800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,9 +1005,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4967900</v>
+        <v>3728300</v>
       </c>
       <c r="E17" s="3">
-        <v>4632800</v>
+        <v>3843000</v>
       </c>
       <c r="F17" s="3">
+        <v>3695400</v>
+      </c>
+      <c r="G17" s="3">
         <v>4495700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4483200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7281400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2565500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3866700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3659600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2860700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2604000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>95400</v>
+        <v>410400</v>
       </c>
       <c r="E18" s="3">
-        <v>204600</v>
+        <v>245200</v>
       </c>
       <c r="F18" s="3">
+        <v>174500</v>
+      </c>
+      <c r="G18" s="3">
         <v>236000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>463000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>66700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>737200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>401200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>679100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>569200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,80 +1117,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-244800</v>
+        <v>-151700</v>
       </c>
       <c r="E20" s="3">
-        <v>-33600</v>
+        <v>-239300</v>
       </c>
       <c r="F20" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="G20" s="3">
         <v>54600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-182900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2847500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>31100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-342100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-23000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>235400</v>
+        <v>570900</v>
       </c>
       <c r="E21" s="3">
-        <v>567500</v>
+        <v>390700</v>
       </c>
       <c r="F21" s="3">
+        <v>544500</v>
+      </c>
+      <c r="G21" s="3">
         <v>714200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>724900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4391300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>280200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>943900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>737100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>837900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>712000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1177,96 +1216,105 @@
       <c r="H22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3">
         <v>88900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>147100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>105600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>64700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-149400</v>
+        <v>258700</v>
       </c>
       <c r="E23" s="3">
-        <v>171000</v>
+        <v>5900</v>
       </c>
       <c r="F23" s="3">
+        <v>148000</v>
+      </c>
+      <c r="G23" s="3">
         <v>290600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>280100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4848300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>248000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>272600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>607700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>512000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13200</v>
+        <v>389600</v>
       </c>
       <c r="E24" s="3">
-        <v>24900</v>
+        <v>-38300</v>
       </c>
       <c r="F24" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G24" s="3">
         <v>159600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>145400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-835500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-33600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>120000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>165800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>119000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-162600</v>
+        <v>-130900</v>
       </c>
       <c r="E26" s="3">
-        <v>146100</v>
+        <v>44200</v>
       </c>
       <c r="F26" s="3">
+        <v>158700</v>
+      </c>
+      <c r="G26" s="3">
         <v>131000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>134700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4012800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>128000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>205300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>441900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>393000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-162600</v>
+        <v>-130900</v>
       </c>
       <c r="E27" s="3">
-        <v>146100</v>
+        <v>44200</v>
       </c>
       <c r="F27" s="3">
+        <v>158700</v>
+      </c>
+      <c r="G27" s="3">
         <v>131000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>134700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4012800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>128000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>205300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>441900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>393000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,26 +1465,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-206800</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-15100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>17</v>
@@ -1435,18 +1495,21 @@
       <c r="J29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>8600</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>244800</v>
+        <v>151700</v>
       </c>
       <c r="E32" s="3">
-        <v>33600</v>
+        <v>239300</v>
       </c>
       <c r="F32" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-54600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>182900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2847500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-31100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>342100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>23000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-162600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>146100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>131000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>119600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4012800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>128000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>205300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>441900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>401600</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-162600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>146100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>131000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>119600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4012800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>128000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>205300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>441900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>401600</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42182</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41818</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41454</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,55 +1819,59 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1864900</v>
+      </c>
+      <c r="E41" s="3">
         <v>641500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>354300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>551100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>678700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>622300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>417800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>785600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>799500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1559800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>602500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>2500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6600</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>17</v>
@@ -1790,179 +1879,194 @@
       <c r="H42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="3">
         <v>14900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>800</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>693100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1073900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1269500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1073100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1130800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1176000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2710900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1282100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>935100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1316000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>573600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1020200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>967300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>878000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>806900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>795000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>898700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>838900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>631600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1407800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>547500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>281300</v>
+      </c>
+      <c r="E45" s="3">
         <v>215400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>159200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>203200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>212000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>286100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>263600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>178800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>195500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>72300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3859900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3133500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2756900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2902200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2819600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2805300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2791600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3182900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2550900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2236900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1795900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E47" s="3">
         <v>71700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>17</v>
@@ -1970,96 +2074,105 @@
       <c r="H47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="3">
         <v>220500</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="3">
         <v>4400</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1058900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1213000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1060300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>829100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>833100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>870100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1772400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>932400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>779900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2653200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>578400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5150800</v>
+      </c>
+      <c r="E49" s="3">
         <v>6758200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7106700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6888000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7556200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9910700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15352100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15340600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10330800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4663400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1549400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>287900</v>
+      </c>
+      <c r="E52" s="3">
         <v>312000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>357400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>364100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>419900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>284000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>336200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>264700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>191200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>201600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10425700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11488400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11301400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10983400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11628800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13870100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19349600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19720600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13852800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5350800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4024000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>411200</v>
+      </c>
+      <c r="E57" s="3">
         <v>543800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>520200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>474900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>450200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>471700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1468900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>747500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>364300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>764000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>317300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>603800</v>
+      </c>
+      <c r="E58" s="3">
         <v>37800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>190200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>70400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>572800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7050400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>64600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>143700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>92400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>40100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>572900</v>
+      </c>
+      <c r="E59" s="3">
         <v>800400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>812200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>872300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>915400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>791800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1172600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>881600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>566700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>642400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>295300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1587900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1382000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1335800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1537400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1436000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1836300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2552200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1693700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1074700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>749400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>652700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2916700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3528300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3365800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3052200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3270800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5224500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4971600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5246900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3063100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1927800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1329200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>769400</v>
+      </c>
+      <c r="E62" s="3">
         <v>923000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>795700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>725700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>751400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>851700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3341800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2117200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1021300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>682000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>189400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5274000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5833300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5497600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5315400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5458300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7912000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9242200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9058000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5159900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3019400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2173000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1927000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1858100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1695500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1838300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1975500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2095100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3462100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1938300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1875100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3431800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1306900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5151700</v>
+      </c>
+      <c r="E76" s="3">
         <v>5655100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5803800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5668000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6170500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5958100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10107400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10662600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8692900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2331400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1851000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42182</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41818</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41454</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-162600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>146100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>131000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>119600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4012800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>128000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>205300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>441900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>401600</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E83" s="3">
         <v>384800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>396500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>423600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>444800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>457000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>182400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>548800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>358900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>160200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>135300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E89" s="3">
         <v>636200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>387800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>593000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>698900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>654900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1198300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>693500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>553800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>513400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-222700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-205600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-286800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-138200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-88600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-171300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-77800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-137000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-171600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-104100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-120900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1275800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-187800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-596100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-126800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2338100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-175000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-708100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2646900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1704800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-947800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-684100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-129600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-123900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-112400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-104900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-91100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-83200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-36300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-64800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-33000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-29000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-178700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-181100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-571900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3004700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-268700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>149600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1523900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1028000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>577200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>458700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E101" s="3">
         <v>19900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-21900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>24100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-10200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-89200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1237800</v>
+      </c>
+      <c r="E102" s="3">
         <v>287200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-196800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-127600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>56400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>204500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-367800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>177400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>292400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>PRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42182</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41818</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41454</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4451600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4138700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4088200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3869900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4731700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4946200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5280600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2632200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4603900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4060800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3539800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3173200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2996200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2722500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2593300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2436200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2966700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3228800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1553300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2891400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2613100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2259800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2077700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1455400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1416200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1494900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1433700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1831500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1979500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2051800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1078900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1712500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1447700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1280000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1095600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,47 +865,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E12" s="3">
         <v>122000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>121700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>119200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>218600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>167700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>184000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>88200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>187800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>152500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>115200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>105800</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,48 +946,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E14" s="3">
         <v>230800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>55500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>245900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>243700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2663100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>243400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>218800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,9 +1030,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4381600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3728300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3843000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3695400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4495700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4483200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7281400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2565500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3866700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3659600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2860700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2604000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E18" s="3">
         <v>410400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>245200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>174500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>236000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>463000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>66700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>737200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>401200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>679100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>569200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1118,86 +1150,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-209100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-151700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-239300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>54600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-182900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2847500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-342100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E21" s="3">
         <v>570900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>390700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>544500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>714200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>724900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4391300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>280200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>943900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>737100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>837900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>712000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1219,102 +1258,111 @@
       <c r="I22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="3">
         <v>88900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>147100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>105600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>64700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-139100</v>
+      </c>
+      <c r="E23" s="3">
         <v>258700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>148000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>290600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>280100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4848300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>248000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>272600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>607700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>512000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E24" s="3">
         <v>389600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-38300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>159600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>145400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-835500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-33600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>120000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>165800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>119000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,9 +1399,12 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1361,38 +1412,41 @@
         <v>-130900</v>
       </c>
       <c r="E26" s="3">
+        <v>-130900</v>
+      </c>
+      <c r="F26" s="3">
         <v>44200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>158700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>131000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>134700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4012800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>205300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>441900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>393000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1400,38 +1454,41 @@
         <v>-130900</v>
       </c>
       <c r="E27" s="3">
+        <v>-130900</v>
+      </c>
+      <c r="F27" s="3">
         <v>44200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>158700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>131000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>134700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4012800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>128000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>205300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>441900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>393000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,29 +1525,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E29" s="3">
         <v>62000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-206800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-12600</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-15100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1498,18 +1558,21 @@
       <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>8600</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>209100</v>
+      </c>
+      <c r="E32" s="3">
         <v>151700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>239300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-54600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>182900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2847500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-31100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>342100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-68900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-162600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>146100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>131000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>119600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4012800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>128000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>205300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>441900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>401600</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-68900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-162600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>146100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>131000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>119600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4012800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>128000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>205300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>441900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>401600</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42182</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41818</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41454</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,61 +1905,65 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1864900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>641500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>354300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>551100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>678700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>622300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>417800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>785600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>799500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1559800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>602500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6600</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>17</v>
@@ -1882,194 +1971,209 @@
       <c r="I42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="3">
         <v>14900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>800</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>738600</v>
+      </c>
+      <c r="E43" s="3">
         <v>693100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1073900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1269500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1073100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1130800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1176000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2710900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1282100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>935100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1316000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>573600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1150300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1020200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1200200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>967300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>878000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>806900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>795000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>898700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>838900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>631600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1407800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>547500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>230200</v>
+      </c>
+      <c r="E45" s="3">
         <v>281300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>215400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>159200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>203200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>212000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>286100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>263600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>178800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>195500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>72300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2719900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3859900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3133500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2756900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2902200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2819600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2805300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2791600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3182900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2550900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2236900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1795900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E47" s="3">
         <v>68200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>71700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>17</v>
@@ -2077,102 +2181,111 @@
       <c r="I47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="3">
         <v>220500</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="3">
         <v>4400</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1165400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1058900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1213000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1060300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>829100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>833100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>870100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1772400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>932400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>779900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2653200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>578400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6779200</v>
+      </c>
+      <c r="E49" s="3">
         <v>5150800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6758200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7106700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6888000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7556200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9910700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15352100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15340600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10330800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4663400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1549400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>287700</v>
+      </c>
+      <c r="E52" s="3">
         <v>287900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>312000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>357400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>364100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>419900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>284000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>336200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>264700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>191200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>201600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11017300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10425700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11488400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11301400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10983400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11628800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13870100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19349600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19720600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13852800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5350800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4024000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>537300</v>
+      </c>
+      <c r="E57" s="3">
         <v>411200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>543800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>520200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>474900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>450200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>471700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1468900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>747500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>364300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>764000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>317300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E58" s="3">
         <v>603800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>190200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>70400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>572800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7050400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>143700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>92400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>40100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>540100</v>
+      </c>
+      <c r="E59" s="3">
         <v>572900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>812200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>872300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>915400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>791800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1172600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>881600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>566700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>642400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>295300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1113600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1587900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1382000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1335800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1537400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1436000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1836300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2552200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1693700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1074700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>749400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>652700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4070400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2916700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3528300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3365800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3052200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3270800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5224500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4971600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5246900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3063100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1927800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1329200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>991200</v>
+      </c>
+      <c r="E62" s="3">
         <v>769400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>923000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>795700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>725700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>751400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>851700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3341800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2117200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1021300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>682000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>189400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6175200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5274000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5833300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5497600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5315400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5458300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7912000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9242200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9058000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5159900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3019400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2173000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2067600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1927000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1858100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1695500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1838300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1975500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2095100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3462100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1938300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1875100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3431800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1306900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4842100</v>
+      </c>
+      <c r="E76" s="3">
         <v>5151700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5655100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5803800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5668000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6170500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5958100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10107400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10662600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8692900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2331400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1851000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42182</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41818</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41454</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-68900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-162600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>146100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>131000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>119600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4012800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>128000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>205300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>441900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>401600</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>338600</v>
+      </c>
+      <c r="E83" s="3">
         <v>312200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>384800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>396500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>423600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>444800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>457000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>182400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>548800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>358900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>160200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>135300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>307300</v>
+      </c>
+      <c r="E89" s="3">
         <v>156300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>636200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>387800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>593000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>698900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>654900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1198300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>693500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>553800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>513400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-222700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-205600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-286800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-138200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-88600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-171300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-137000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-171600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-104100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-120900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1958600</v>
+      </c>
+      <c r="E94" s="3">
         <v>1275800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-187800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-596100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-126800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2338100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-175000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-708100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2646900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1704800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-947800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-684100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-129600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-123900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-112400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-104900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-91100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-83200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-36300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-64800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-33000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-29000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>421600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-178700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-181100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-571900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3004700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-268700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>149600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1523900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1028000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>577200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>458700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>19900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-21900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>24100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-89200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4400</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1278600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1237800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>287200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-196800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-127600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>204500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-367800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>177400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>292400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRGO_YR_FIN.xlsx
@@ -956,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>49200</v>
+        <v>96100</v>
       </c>
       <c r="E14" s="3">
         <v>230800</v>
